--- a/laporan/laporan_keuangan.xlsx
+++ b/laporan/laporan_keuangan.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Laporan Keuangan" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data Parkir" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ringkasan Keuangan" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,38 +437,295 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Kode_Parking</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No_Kendaraan</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jenis_Kendaraan</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Waktu_Masuk</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Waktu_Keluar</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Durasi</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Biaya</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Uang_Pembayaran</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Nama_Petugas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Foto_Masuk</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Foto_Keluar</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NJ9E1D0UMB22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Y 0313 HAS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Motor</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-01-31 21:09:22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-01-31 21:09:47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>00:00:25</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Reza Ramdan Permana</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>./capture/masuk/NJ9E1D0UMB22.png</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>./capture/keluar/NJ9E1D0UMB22.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SN12XKBEG18L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D 4230 ASQ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mobil</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-01-31 21:10:39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-01-31 21:11:58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>00:01:19</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>60000</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Reza Ramdan Permana</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>./capture/masuk/SN12XKBEG18L.png</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>./capture/keluar/SN12XKBEG18L.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>58O0J9BUUNER</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D 9530 JFD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Motor</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-01-31 21:15:34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-01-31 21:16:09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>00:00:35</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Reza Ramdan Permana</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>./capture/masuk/58O0J9BUUNER.png</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>./capture/keluar/58O0J9BUUNER.png</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Deskripsi</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nilai</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Total Pemasukan</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rp 8,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Total Kembalian</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rp 62,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Uang yang Perlu Disetorkan</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rp 8,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Terbilang</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Delapan Ribu</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Delapan ribu Rupiah</t>
         </is>
       </c>
     </row>
